--- a/medicine/Enfance/Les_Gardiens_de_Ga'Hoole/Les_Gardiens_de_Ga'Hoole.xlsx
+++ b/medicine/Enfance/Les_Gardiens_de_Ga'Hoole/Les_Gardiens_de_Ga'Hoole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Gardiens_de_Ga%27Hoole</t>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Gardiens de Ga'Hoole (Guardians of Ga'Hoole de son titre original) est une série de livres destinée à la jeunesse. Elle comprend 15 tomes principaux, tous traduits en français, et 3 hors-séries en version originale. Cette série a été écrite par Kathryn Lasky et a été traduite en français par Cécile Moran.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Gardiens_de_Ga%27Hoole</t>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contexte des livres
-À travers les différents tomes, les personnages rencontrent de nombreux obstacles qu'ils doivent à tout prix éviter. Les récits se passent dans un monde imaginaire peuplé essentiellement de chouettes et de hiboux. L'endroit le plus réputé de ce monde est le Grand Arbre de Ga'Hoole, considéré par la plupart des chouettes comme une légende. Au Grand Arbre de Ga'Hoole résident les gardiens de Ga'Hoole qui se battent pour défendre les royaumes des chouettes et des hiboux ainsi que la liberté. Ce sont de véritables héros[1].
-Au cours du premier livre, quatre jeunes chouettes deviennent amis et forment la « Petite Bande ». Deux d'entre-eux, Soren et Gylfie, se sont rencontrés après avoir été emmené de force dans la pension Saint-Ægolius pour chouettes orphelines où d'étranges choses se passent. Les quatre amis veulent avertir les Gardiens de Ga'Hoole sur ce qu'il se passe à Saint-Ægolius[2] car ils pensent que les étranges pratiques des chouettes de Saint-Ægolius sont liées aux récentes disparitions d'œufs dans les différents royaumes.
+          <t>Contexte des livres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À travers les différents tomes, les personnages rencontrent de nombreux obstacles qu'ils doivent à tout prix éviter. Les récits se passent dans un monde imaginaire peuplé essentiellement de chouettes et de hiboux. L'endroit le plus réputé de ce monde est le Grand Arbre de Ga'Hoole, considéré par la plupart des chouettes comme une légende. Au Grand Arbre de Ga'Hoole résident les gardiens de Ga'Hoole qui se battent pour défendre les royaumes des chouettes et des hiboux ainsi que la liberté. Ce sont de véritables héros.
+Au cours du premier livre, quatre jeunes chouettes deviennent amis et forment la « Petite Bande ». Deux d'entre-eux, Soren et Gylfie, se sont rencontrés après avoir été emmené de force dans la pension Saint-Ægolius pour chouettes orphelines où d'étranges choses se passent. Les quatre amis veulent avertir les Gardiens de Ga'Hoole sur ce qu'il se passe à Saint-Ægolius car ils pensent que les étranges pratiques des chouettes de Saint-Ægolius sont liées aux récentes disparitions d'œufs dans les différents royaumes.
 Après être arrivés au Grand Arbre de Ga'Hoole, les mystères s'enchaînent et de nouveaux ennemis font leur apparition, les Sangs-Purs. Les Sangs-Purs sont un ordre de chouettes effraies voulant instaurer un classement de pureté dans les royaumes des chouettes et des hiboux. Ils n'ont aucune valeur morale et, à leurs yeux, l'espèce la plus pure est la chouette effraie. Chez les Sangs-Purs, parmi les chouettes effraies, seules les Tyto Alba (les effraies des clochers) sont aptes à devenir lieutenants ou dirigeants. Ils sont bien plus cruels et dangereux que les chouettes de Saint-Ægolius. Une menace plane sur les royaumes des chouettes et des hiboux.
-Les langues fictives de Ga'Hoole
-Kathryn Lasky a créé deux langues fictives pour ses livres ; le Hoolien (en anglais : Hoolian), parlé dans les Royaumes du Sud et le Krakéen (en anglais : Krakish), parlé dans les Royaumes du Nord. Au fil des différents livres, on apprend plusieurs mots de vocabulaire dans ces deux langues. Le Krakéen est décrit bien plus souvent que le Hoolien. En effet, le Hoolien est relativement peu connu puisque les personnages principaux, venant des Royaumes du Sud, sont censés parler en Hoolien au quotidien. Le Krakéen est beaucoup plus détaillé, notamment lorsque les personnages apprennent cette langue ou lorsqu'ils partent en mission dans les Royaumes du Nord.
-Certains mots de vocabulaire en Krakéen sont souvent utilisés tels que « nachtmagen »[3], une magie noire utilisée par les hagsmons, des monstres mi-chouette, mi-corbeaux ou encore « issen blaue », un matériau très dur à base de glace utilisé dans les Royaumes du Nord notamment pour créer des armes[4]. Parfois, des phrases en Krakéen apparaissent dans les livres telles que « Cintura Vrulcrum, Niykah Kronig », qui est une devise krakéenne que l'on peut traduire par « Chaque blessure est une occasion, et chaque malédiction, un nouveau défi »[5].
-Cependant, que ce soit le Hoolien ou le Krakéen, aucune de ces deux langues n'est assez détaillée pour former des phrases trop complexes. Ces deux langues sont donc beaucoup moins complètes que d'autres langues imaginaires telles que le Quenya ou le Sindarin, créées par J. R. R. Tolkien.
 </t>
         </is>
       </c>
@@ -533,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Gardiens_de_Ga%27Hoole</t>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +561,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>À propos des livres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les langues fictives de Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kathryn Lasky a créé deux langues fictives pour ses livres ; le Hoolien (en anglais : Hoolian), parlé dans les Royaumes du Sud et le Krakéen (en anglais : Krakish), parlé dans les Royaumes du Nord. Au fil des différents livres, on apprend plusieurs mots de vocabulaire dans ces deux langues. Le Krakéen est décrit bien plus souvent que le Hoolien. En effet, le Hoolien est relativement peu connu puisque les personnages principaux, venant des Royaumes du Sud, sont censés parler en Hoolien au quotidien. Le Krakéen est beaucoup plus détaillé, notamment lorsque les personnages apprennent cette langue ou lorsqu'ils partent en mission dans les Royaumes du Nord.
+Certains mots de vocabulaire en Krakéen sont souvent utilisés tels que « nachtmagen », une magie noire utilisée par les hagsmons, des monstres mi-chouette, mi-corbeaux ou encore « issen blaue », un matériau très dur à base de glace utilisé dans les Royaumes du Nord notamment pour créer des armes. Parfois, des phrases en Krakéen apparaissent dans les livres telles que « Cintura Vrulcrum, Niykah Kronig », qui est une devise krakéenne que l'on peut traduire par « Chaque blessure est une occasion, et chaque malédiction, un nouveau défi ».
+Cependant, que ce soit le Hoolien ou le Krakéen, aucune de ces deux langues n'est assez détaillée pour former des phrases trop complexes. Ces deux langues sont donc beaucoup moins complètes que d'autres langues imaginaires telles que le Quenya ou le Sindarin, créées par J. R. R. Tolkien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gardiens_de_Ga%27Hoole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Les livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Série principale
-1. L'enlèvement (1er juin 2003)  (ISBN 978-2266155199)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série principale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1. L'enlèvement (1er juin 2003)  (ISBN 978-2266155199)
 Titre original : (en) The Capture
 2. Le grand voyage (1er septembre 2003)  (ISBN 978-2266155205)
 Titre original : (en) The Journey
@@ -583,47 +640,152 @@
 14. Les bannis (1er février 2008)  (ISBN 9782266194716)
 Titre original : (en) The Bannish
 15. La guerre (1er novembre 2008)  (ISBN 9782266194723)
-Titre original : (en) The War of the Ember[6],[7]
-Tomes non traduits
-Il existe trois livres hors-série disponibles uniquement en version originale. Les deux premiers sont des guides pour approfondir les connaissances des lecteurs sur le monde de Ga'Hoole, ils sont narrés par Otulissa. Le dernier hors-série est un préquelle à la série racontant le passé d'Ezylryb.
-A Guide Book to the Great Tree (1er octobre 2007)[8]
-Lost Tales of Ga'Hoole (1er mai 2010)[9]
-The Rise of a Legend (30 juillet 2013)[10]
-Les Légendes de Hoole
-Les tomes 9, 10 et 11 de la série principale diffèrent des autres tomes. En effet, dans le prologue du tome 9, Soren, accompagné de Coryn, sont chargés par Ezylryb, mourant, de lire les Légendes de Ga'Hoole[11]. Le reste du tome 9, ainsi que les tomes 10 et 11 sont les récits brutes, sans intervention extérieure, des Légendes de Ga'Hoole.
+Titre original : (en) The War of the Ember,</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gardiens_de_Ga%27Hoole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les livres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tomes non traduits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe trois livres hors-série disponibles uniquement en version originale. Les deux premiers sont des guides pour approfondir les connaissances des lecteurs sur le monde de Ga'Hoole, ils sont narrés par Otulissa. Le dernier hors-série est un préquelle à la série racontant le passé d'Ezylryb.
+A Guide Book to the Great Tree (1er octobre 2007)
+Lost Tales of Ga'Hoole (1er mai 2010)
+The Rise of a Legend (30 juillet 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gardiens_de_Ga%27Hoole</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les livres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Légendes de Hoole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tomes 9, 10 et 11 de la série principale diffèrent des autres tomes. En effet, dans le prologue du tome 9, Soren, accompagné de Coryn, sont chargés par Ezylryb, mourant, de lire les Légendes de Ga'Hoole. Le reste du tome 9, ainsi que les tomes 10 et 11 sont les récits brutes, sans intervention extérieure, des Légendes de Ga'Hoole.
 Ces trois livres racontent l'histoire du jeune roi Hoole ainsi que de son mentor, le premier charbonnier, Grank. Certains personnages légendaires dont les noms ont été évoqué dans les livres précédents nous sont enfin présentés.
-Ces trois livres servent de bases à la culture des chouettes et des hiboux. Ils ont été écrits à l'époque de Hoole et de Grank, en des temps immémoriaux[12]. De nombreuses techniques et connaissances étaient alors ignorées des chouettes, ce qui accentue l'idée d'avoir affaire à une proto-civilisation chouette dans ces trois livres[13].
-Réédition
-Tomes 1 à 3. Le Royaume de Ga'Hoole : La Légende des Gardiens (Octobre 2010)  (ISBN 9782266199629) Édition groupée chez Pocket Jeunesse.
+Ces trois livres servent de bases à la culture des chouettes et des hiboux. Ils ont été écrits à l'époque de Hoole et de Grank, en des temps immémoriaux. De nombreuses techniques et connaissances étaient alors ignorées des chouettes, ce qui accentue l'idée d'avoir affaire à une proto-civilisation chouette dans ces trois livres.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_Gardiens_de_Ga%27Hoole</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Gardiens_de_Ga%27Hoole</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les livres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomes 1 à 3. Le Royaume de Ga'Hoole : La Légende des Gardiens (Octobre 2010)  (ISBN 9782266199629) Édition groupée chez Pocket Jeunesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Gardiens_de_Ga%27Hoole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Famille et amis de Soren :
 Soren, Tyto alba (Chouette effraie) : Il est le personnage principal de la saga. Il se fait enlever et emmener à l'orphelinat Saint-Ægolius pour chouettes orphelines avant de s'en évader au tome 1. Il est gardien de Ga'Hoole du tome 2 à 7, puis ryb de charbonnier et de météorologie du tome 7 à 15. Il est membre de la Petite Bande et du Super-Squad tout au long de la saga. Enfin, il devient roi à la fin du tome 15. C'est un personnage très bon et courageux.
@@ -658,13 +820,13 @@
 Boron, Nyctea scandiaca (Harfang des neiges) : Il est le roi de Hoole jusqu'au tome 8, lorsqu'il meurt de vieillesse.
 Barrane, Nyctea scandiaca (Harfang des neiges) : Elle est la reine de Hoole jusqu'au tome 8, lorsqu'elle meurt de vieillesse.
 Matrone, Asio flammeus (Hibou des marais) : Elle s'occupe des habitants du Grand Arbre, et notamment de son infirmerie.
-Strix Struma, Strix occidentalis (Chouette tachetée) : Elle est professeure, ou ryb, de navigation jusqu'au tome 4. Nyra lui arrache une aile au tome 4 et elle meurt[14].
+Strix Struma, Strix occidentalis (Chouette tachetée) : Elle est professeure, ou ryb, de navigation jusqu'au tome 4. Nyra lui arrache une aile au tome 4 et elle meurt.
 Elvan, Strix nebulosa (Chouette lapone) : Il est le ryb des charbonniers.
 Ezylryb, Otus trichopsis (Petit-duc à moustaches) : Il est le ryb de météorologie jusqu'au tome 9, où il meurt de vieillesse. Il est également connu sous le nom de Lyze de Kiel, un héros des Royaumes du Nord. Il est le mentor de Soren. C'est un personnage relativement important dans la saga.
 Poot, Aegolius funereus (Nyctale de Tengmalm) : Il est l'assistant d'Ezylryb.
 Bubo, Bubo virginianus (Hibou grand-duc d'Amérique) : Il est le forgeron du Grand Arbre. Il est capable de court-juter un charbon pour le faire ressembler au charbon de Hoole. Il semble également mieux résister au pouvoir du charbon.
 Miss Plonk, de son vrai nom Bruwella, Nyctea Scandiaca (Harfang des neiges) : Elle est la chanteuse du Grand Arbre. Elle est la compagne de Doc Bonbec à partir du tome 12.
-Fanon, Athene cunicularia (Chevêche des terriers) : Elle est la professeure, ou ryb, de ga'hoologie jusqu'au tome 5, elle est donc chargée de l'entretien du Grand Arbre de Ga'Hoole. Elle en est tellement obsédée qu'elle va jusqu'à trahir les Gardiens quand ces derniers se retrouvent contraints de surexploiter le Grand Arbre afin de résister à l'invasion des Sangs-Purs dans le tome 4, endommageant donc le Grand Arbre de Ga'Hoole[15]. Dévastée par sa trahison car celle-ci a entraîné la mort de Strix Struma, elle s'exile dans un couvent pour y finir ses jours.
+Fanon, Athene cunicularia (Chevêche des terriers) : Elle est la professeure, ou ryb, de ga'hoologie jusqu'au tome 5, elle est donc chargée de l'entretien du Grand Arbre de Ga'Hoole. Elle en est tellement obsédée qu'elle va jusqu'à trahir les Gardiens quand ces derniers se retrouvent contraints de surexploiter le Grand Arbre afin de résister à l'invasion des Sangs-Purs dans le tome 4, endommageant donc le Grand Arbre de Ga'Hoole. Dévastée par sa trahison car celle-ci a entraîné la mort de Strix Struma, elle s'exile dans un couvent pour y finir ses jours.
 Octavia : C'est un serpent kiéléen aveugle. C'est une amie de longue date d'Ezylryb et ancienne membre des Légions de serpents kiéléens lors de la bataille des Royaumes du Nord. Elle a perdu ses yeux lors d'une bataille.
 Les Sangs-Purs :
 Bec d'Acier ou Sa Pureté ou Grand Tyto ou encore Kludd : Il est le supérieur et le dirigeant de tous les Sangs-Purs. C'est le compagnon de Nyra. Il se fait assassiner par Perce-Neige au tome 6.
@@ -713,56 +875,58 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_Gardiens_de_Ga%27Hoole</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Gardiens_de_Ga%27Hoole</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Tome 1 : L'enlèvement : 
-De plus en plus d'œufs et de poussins disparaissent dans la forêt de Tyto[16].
-Soren, une chouette effraie, a trois semaines quand il est enlevé par des hiboux de la « pension Saint-Ægolius pour chouettes orphelines »[17].
+De plus en plus d'œufs et de poussins disparaissent dans la forêt de Tyto.
+Soren, une chouette effraie, a trois semaines quand il est enlevé par des hiboux de la « pension Saint-Ægolius pour chouettes orphelines ».
 Là-bas, il va connaître un étrange enseignement.
 Il se lie d'amitié avec Gylfie, une jeune chevêchette Elfe de son âge.
 Ensemble, ils veulent s'échapper et révéler au monde ce qui se passe à Saint-Ægolius. Mais, pour s'échapper, ils doivent apprendre à voler.
 Tome 2 : Le Grand Voyage : 
-Soren et ses nouveaux amis (Spéléon et Perce-Neige), ainsi que sa nounou Mme Pittivier, décident de se rendre au Grand Arbre de Ga'Hoole, cet arbre qui les a fait rêver par ses légendes[18]. Le voyage est long et difficile mais arrivés là-bas, un nouveau défi se présente, il doivent faire une série d'épreuves difficiles pour devenir Gardiens du Grand Arbre de Ga'Hoole.
+Soren et ses nouveaux amis (Spéléon et Perce-Neige), ainsi que sa nounou Mme Pittivier, décident de se rendre au Grand Arbre de Ga'Hoole, cet arbre qui les a fait rêver par ses légendes. Le voyage est long et difficile mais arrivés là-bas, un nouveau défi se présente, il doivent faire une série d'épreuves difficiles pour devenir Gardiens du Grand Arbre de Ga'Hoole.
 Tome 3 : L'assaut : 
 Églantine, la sœur de Soren, est de retour.
-Mais elle a subi de telles épreuves qu'elle ne peut en parler. De plus, Ezylryb, le mentor de Soren, a disparu. Pour le retrouver, Soren est prêt à tout. Il sent qu'une menace bien plus grande que celle de Saint-Ægolius pèse sur les royaumes des chouettes et des hiboux. Le Mal est en route. En effet, les Sangs-Purs, dirigés par Bec d'Acier, ont fabriqué le « triangle du diable », une installation conçue pour brouiller le gésier des chouettes et des hiboux afin de rendre la navigation impossible[19]. Le Super-Squad est pris en guet-apens, les Sangs-Purs les attaquent.
+Mais elle a subi de telles épreuves qu'elle ne peut en parler. De plus, Ezylryb, le mentor de Soren, a disparu. Pour le retrouver, Soren est prêt à tout. Il sent qu'une menace bien plus grande que celle de Saint-Ægolius pèse sur les royaumes des chouettes et des hiboux. Le Mal est en route. En effet, les Sangs-Purs, dirigés par Bec d'Acier, ont fabriqué le « triangle du diable », une installation conçue pour brouiller le gésier des chouettes et des hiboux afin de rendre la navigation impossible. Le Super-Squad est pris en guet-apens, les Sangs-Purs les attaquent.
 Tome 4 : Le Siège :
 À la suite de sa défaite contre le Super-Squad, Bec d'Acier décide d'attaquer le Grand Arbre.
 Il rassemble ses troupes.
-Le Super-Squad est envoyé en mission par le parlement du Grand Arbre de Ga'Hoole à l'endroit qui hante les cauchemars de Gylfie et de Soren : la pension Saint-Ægolius pour chouettes orphelines[20].
+Le Super-Squad est envoyé en mission par le parlement du Grand Arbre de Ga'Hoole à l'endroit qui hante les cauchemars de Gylfie et de Soren : la pension Saint-Ægolius pour chouettes orphelines.
 Le sort des royaumes des chouettes et des hiboux repose sur les épaules de ces futurs gardiens.
 Tome 5 : Le Guet-Apens :
 Églantine a un comportement des plus étrange depuis quelque temps.
 Soren et Primevère, la meilleure amie d'Églantine, sont bouleversés.
 La vérité ne se fait pas attendre.
-Elle est manipulée par Nyra, la compagne de Bec d'Acier[21], pour voler des informations et des livres contenant des connaissances avancées en matière de combat au Grand Arbre de Ga'Hoole.
+Elle est manipulée par Nyra, la compagne de Bec d'Acier, pour voler des informations et des livres contenant des connaissances avancées en matière de combat au Grand Arbre de Ga'Hoole.
 Le Super-Squad est reformé pour affronter Nyra ainsi que pour sauver Églantine et Primevère.
 Tome 6 : L'incendie :
-Les Sangs-Purs ont envahi les canyons de Saint-Ægolius[22].
+Les Sangs-Purs ont envahi les canyons de Saint-Ægolius.
 Au Grand Arbre de Ga'Hoole, on s'inquiète : l'armée des gardiens ne peut faire face à une attaque de Bec d'Acier. Soren et le Super-Squad sont envoyés dans les Royaumes du Nord afin de rassembler les Becs Givrés, légendaires bataillons de la Guerre des Griffes de Glace jadis commandés par Ezylryb.
 La tâche n'est pas aisée et le temps presse.
 L'ultime bataille contre le Mal est imminente.
@@ -791,31 +955,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Gardiens_de_Ga%27Hoole</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Gardiens_de_Ga'Hoole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Gardiens_de_Ga%27Hoole</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Titre : Le Royaume de Ga'hoole
 Réalisé par : Zack Snyder
